--- a/biology/Histoire de la zoologie et de la botanique/Elsa_Pooley/Elsa_Pooley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Elsa_Pooley/Elsa_Pooley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elsa Pooley (née Elsa Susanna Bond en 1947 à Johannesbourg), est une botaniste, paysagiste, guide et artiste sud-africaine.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit dans les réserves de gibier Ndumo (en) et Mkhuze et les explore depuis environ 20 ans, où elle a été inspirée par la flore de la région. Elle collecte des plantes, les peint, écrit à leur sujet, et jardine avec elles. Son travail a été exposé à travers l'Afrique du Sud, ce qui a mené à des commissions, à la fois au niveau local et à l'étranger. Ses peintures ont paru dans la série Flowering Plants of Africa (en) et son édition limitée de portfolio « Palms of Africa » (1988) a été vendue dans le monde entier. Elle a été mandatée pour faire des peintures pour le Train bleu en 1999[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans les réserves de gibier Ndumo (en) et Mkhuze et les explore depuis environ 20 ans, où elle a été inspirée par la flore de la région. Elle collecte des plantes, les peint, écrit à leur sujet, et jardine avec elles. Son travail a été exposé à travers l'Afrique du Sud, ce qui a mené à des commissions, à la fois au niveau local et à l'étranger. Ses peintures ont paru dans la série Flowering Plants of Africa (en) et son édition limitée de portfolio « Palms of Africa » (1988) a été vendue dans le monde entier. Elle a été mandatée pour faire des peintures pour le Train bleu en 1999
 Pooley vit à Clansthal sur la Côte sud du KwaZulu-Natal depuis 1984, et passe son temps à la peinture, l'écriture et à diriger des circuits peinture au KwaZulu-Natal et au Lesotho. Elle est un membre fondateur de l'Association des Artistes Botaniques d'Afrique du Sud (Botanical Artists' Association of Southern Africa, BAASA).
 Elsa Pooley a été mariée à Tony Pooley (en) (1938-2004), un garde de réserve et une autorité de renom sur les crocodiles. Trois fils sont issus de ce mariage - Simon, Justin et Thomas.
 </t>
@@ -544,7 +558,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vincent Carruthers et Elsa Pooley, Flowers, Grasses, Ferns &amp; Fungi, Southern Book Publishers, 1999 (ISBN 978-1-86812-748-1, lire en ligne)
 avec Tony Pooley : Mashesha - The Making of a Game Ranger. 1992
@@ -582,7 +598,9 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pooley, A.C., E.S. Pooley, Wayne F. Hadley et Carl Gans (1973) « Ecological aspects of the subsoil herpetofauna in Ndumu Game Reserve ». Annals of Carnegie Museum vol. 44 Article 8.
 Anderson J.L. et E.S. Pooley (1977) « Some plants identified in the rumina of Nyala antelope Tragelaphus angasi in Ndumu Game Reserve ». Lammergeyer, Journal of Natal Parks Board, 23:40-45.
@@ -619,7 +637,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1996 : Défenseur de l'année de la Wildlife &amp; Environment Society (branche du Natal)
 1999 : Certificat de mérite pour ses contributions exceptionnelles à la botanique, par la South African Association of Botanists.
